--- a/data/trans_media/P34F2_MIN_2023-Estudios-trans_media.xlsx
+++ b/data/trans_media/P34F2_MIN_2023-Estudios-trans_media.xlsx
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>18,13; 20,86</t>
+          <t>18,07; 20,86</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>19,22; 21,46</t>
+          <t>19,21; 21,57</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>19,06; 20,9</t>
+          <t>19,14; 20,86</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>20,59; 22,88</t>
+          <t>20,54; 22,9</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>16,39; 20,97</t>
+          <t>16,57; 20,96</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>18,81; 21,52</t>
+          <t>18,88; 21,52</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>19,52; 22,69</t>
+          <t>19,37; 22,54</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>18,78; 21,31</t>
+          <t>18,7; 21,33</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>19,47; 21,58</t>
+          <t>19,42; 21,44</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>20,28; 21,99</t>
+          <t>20,32; 22,09</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>17,85; 20,74</t>
+          <t>17,8; 20,77</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>19,37; 21,08</t>
+          <t>19,35; 21,08</t>
         </is>
       </c>
     </row>
